--- a/Routine.xlsx
+++ b/Routine.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\User\N\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C5809A-C751-4F70-8888-404EFFEAD31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0D0311-022F-47B8-ABCB-CE07931B4417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{96A2B82B-12BA-4C53-9816-34BB0BC5F617}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{BB497A38-550B-4587-8409-80A22756DDE1}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCH_Type1" sheetId="5" r:id="rId1"/>
-    <sheet name="SCH_Type0" sheetId="1" r:id="rId2"/>
+    <sheet name="SCH_0" sheetId="1" r:id="rId1"/>
+    <sheet name="SCH" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Defecate</t>
   </si>
@@ -34,42 +34,14 @@
     <t>Exercise</t>
   </si>
   <si>
-    <t>Medicine</t>
-  </si>
-  <si>
     <t>Guitar_Practice</t>
   </si>
   <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
     <t>Journal</t>
-  </si>
-  <si>
-    <t>German_Grammar
-German_Read
-Stenograph</t>
-  </si>
-  <si>
-    <t>Car
-Speak
-Breakfast</t>
-  </si>
-  <si>
-    <t>Sun
-Medicine_Anki</t>
   </si>
   <si>
     <t>Break
 German_Listen</t>
-  </si>
-  <si>
-    <t>Break
-Medicine_Anki</t>
-  </si>
-  <si>
-    <t>Guitar_Music
-Guitar_Practice</t>
   </si>
   <si>
     <t>Teeth
@@ -77,180 +49,125 @@
 Shower</t>
   </si>
   <si>
-    <t>Computer
-Technology</t>
+    <t>- 05.10</t>
+  </si>
+  <si>
+    <t>- 06.10</t>
+  </si>
+  <si>
+    <t>- 08.00</t>
+  </si>
+  <si>
+    <t>- 08.30</t>
+  </si>
+  <si>
+    <t>- 04.30</t>
+  </si>
+  <si>
+    <t>- 13.00</t>
+  </si>
+  <si>
+    <t>- 14.00</t>
+  </si>
+  <si>
+    <t>- 14.15</t>
+  </si>
+  <si>
+    <t>- 16.00</t>
+  </si>
+  <si>
+    <t>- 16.30</t>
+  </si>
+  <si>
+    <t>- 17.15</t>
+  </si>
+  <si>
+    <t>- 18.00</t>
+  </si>
+  <si>
+    <t>- 20.30</t>
+  </si>
+  <si>
+    <t>- 19.00</t>
+  </si>
+  <si>
+    <t>- 17.00</t>
+  </si>
+  <si>
+    <t>- 17.30</t>
+  </si>
+  <si>
+    <t>- 13.30</t>
+  </si>
+  <si>
+    <t>- 14.45</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Guitar</t>
+  </si>
+  <si>
+    <t>- 18.15</t>
+  </si>
+  <si>
+    <t>German_Read</t>
+  </si>
+  <si>
+    <t>- 19.30</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>- 04.50</t>
   </si>
   <si>
     <t>Plank
-German_Listen
-Exercise</t>
-  </si>
-  <si>
-    <t>- 05.50</t>
-  </si>
-  <si>
-    <t>- 05.10</t>
-  </si>
-  <si>
-    <t>- 06.10</t>
-  </si>
-  <si>
-    <t>- 07.30</t>
-  </si>
-  <si>
-    <t>- 08.00</t>
-  </si>
-  <si>
-    <t>- 09.30</t>
-  </si>
-  <si>
-    <t>- 08.45</t>
-  </si>
-  <si>
-    <t>- 08.30</t>
-  </si>
-  <si>
-    <t>- 04.30</t>
-  </si>
-  <si>
-    <t>- 10.15</t>
-  </si>
-  <si>
-    <t>- 10.30</t>
-  </si>
-  <si>
-    <t>- 13.00</t>
-  </si>
-  <si>
-    <t>- 14.00</t>
-  </si>
-  <si>
-    <t>- 14.15</t>
-  </si>
-  <si>
-    <t>- 16.00</t>
-  </si>
-  <si>
-    <t>- 16.30</t>
-  </si>
-  <si>
-    <t>- 17.15</t>
-  </si>
-  <si>
-    <t>- 18.00</t>
-  </si>
-  <si>
-    <t>- 20.30</t>
-  </si>
-  <si>
-    <t>- 19.00</t>
-  </si>
-  <si>
-    <t>- 18.30</t>
-  </si>
-  <si>
-    <t>- 17.00</t>
-  </si>
-  <si>
-    <t>- 17.30</t>
-  </si>
-  <si>
-    <t>German_Read
-Stenography</t>
-  </si>
-  <si>
-    <t>- 16.40</t>
-  </si>
-  <si>
-    <t>Break</t>
-  </si>
-  <si>
-    <t>Car
-Speak
+German_Listen</t>
+  </si>
+  <si>
+    <t>Car &amp; Speak
 Breakfast
-Sun
-Medicine_Anki</t>
-  </si>
-  <si>
-    <t>- 13.30</t>
-  </si>
-  <si>
-    <t>- 13.50</t>
-  </si>
-  <si>
-    <t>- 14.50</t>
-  </si>
-  <si>
-    <t>- 14.45</t>
-  </si>
-  <si>
-    <t>- 15.00</t>
-  </si>
-  <si>
-    <t>-15.45</t>
-  </si>
-  <si>
-    <t>- 15.05</t>
-  </si>
-  <si>
-    <t>- 16.05</t>
-  </si>
-  <si>
-    <t>- 16.20</t>
-  </si>
-  <si>
-    <t>- 16.50</t>
-  </si>
-  <si>
-    <t>- 09.15</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>Guitar</t>
-  </si>
-  <si>
-    <t>German_Read
-Stenograph
+Sun &amp; Read_English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shower
+Teeth
+Groom </t>
+  </si>
+  <si>
+    <t>- 14.30</t>
+  </si>
+  <si>
+    <t>- 15.45</t>
+  </si>
+  <si>
+    <t>Stenography</t>
+  </si>
+  <si>
+    <t>- 15.15</t>
+  </si>
+  <si>
+    <t>- 15.30</t>
+  </si>
+  <si>
+    <t>Programming
 Plank
-Lunch
-Type</t>
-  </si>
-  <si>
-    <t>Medicine
-Chemistry</t>
-  </si>
-  <si>
-    <t>Break
-German_Anki</t>
-  </si>
-  <si>
-    <t>02.30 / 01.15</t>
-  </si>
-  <si>
-    <t>02.00 / 01.15</t>
-  </si>
-  <si>
-    <t>00.45 / 02.00</t>
-  </si>
-  <si>
-    <t>- 18.15</t>
-  </si>
-  <si>
-    <t>- 18.45</t>
-  </si>
-  <si>
-    <t>01.30 / 00.30</t>
-  </si>
-  <si>
-    <t>- 17.05</t>
-  </si>
-  <si>
-    <t>01.30 / 01.00</t>
-  </si>
-  <si>
-    <t>00.45 / 01.00</t>
+Lunch</t>
+  </si>
+  <si>
+    <t>-16.15</t>
+  </si>
+  <si>
+    <t>01.45</t>
+  </si>
+  <si>
+    <t>01.45/01.00/0.30</t>
+  </si>
+  <si>
+    <t>02.15</t>
   </si>
 </sst>
 </file>
@@ -673,11 +590,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023EF35D-0E6D-4D16-88A0-21630A72E543}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30F56A3-EE6F-4B85-A276-BF1F8EAAFB67}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N16" sqref="A1:N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,455 +845,179 @@
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="4" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="2"/>
       <c r="D8" s="4" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="4" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023EF35D-0E6D-4D16-88A0-21630A72E543}">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="2"/>
-    <col min="10" max="10" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="G9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="G10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="G11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="G12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="G13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="G14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="G15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Routine.xlsx
+++ b/Routine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\User\N\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0D0311-022F-47B8-ABCB-CE07931B4417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87987E8-D2A9-4560-BCAF-1B514C4372FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{BB497A38-550B-4587-8409-80A22756DDE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{BB497A38-550B-4587-8409-80A22756DDE1}"/>
   </bookViews>
   <sheets>
     <sheet name="SCH_0" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>Defecate</t>
-  </si>
-  <si>
-    <t>Exercise</t>
   </si>
   <si>
     <t>Guitar_Practice</t>
@@ -42,11 +39,6 @@
   <si>
     <t>Break
 German_Listen</t>
-  </si>
-  <si>
-    <t>Teeth
-Groom
-Shower</t>
   </si>
   <si>
     <t>- 05.10</t>
@@ -158,16 +150,22 @@
 Lunch</t>
   </si>
   <si>
-    <t>-16.15</t>
-  </si>
-  <si>
     <t>01.45</t>
   </si>
   <si>
-    <t>01.45/01.00/0.30</t>
-  </si>
-  <si>
     <t>02.15</t>
+  </si>
+  <si>
+    <t>- 16.15</t>
+  </si>
+  <si>
+    <t>02.00/01.00/0.30</t>
+  </si>
+  <si>
+    <t>Exercise
+Teeth
+Groom
+Shower</t>
   </si>
 </sst>
 </file>
@@ -591,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023EF35D-0E6D-4D16-88A0-21630A72E543}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,7 +604,7 @@
     <col min="5" max="5" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="2"/>
     <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="2"/>
     <col min="10" max="10" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.109375" style="1" bestFit="1" customWidth="1"/>
@@ -615,128 +613,124 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="1"/>
       <c r="I1" s="7"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="1"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
       <c r="K7" s="2"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -745,80 +739,63 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="D11" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="D13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -831,7 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30F56A3-EE6F-4B85-A276-BF1F8EAAFB67}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -847,101 +824,101 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -950,10 +927,10 @@
       <c r="B8" s="8"/>
       <c r="C8" s="2"/>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -962,10 +939,10 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -974,10 +951,10 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -986,10 +963,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -998,10 +975,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -1010,10 +987,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2"/>
     </row>
